--- a/ExamleExcel.xlsx
+++ b/ExamleExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\Actual programing\Personal\MetuProjektas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A243D-1B3B-4F4A-914F-5509FB8CC75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4901BF-90F5-4866-8B79-D27095AE2DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Coordinates seperated by a space or a comma</t>
   </si>
@@ -33,28 +33,31 @@
     <t>Value</t>
   </si>
   <si>
-    <t>55.26581294956432, 20.993661174894704</t>
-  </si>
-  <si>
-    <t>55.34366870394346, 21.19268200150342</t>
-  </si>
-  <si>
-    <t>53.92205196159938, 23.78643337914364</t>
-  </si>
-  <si>
-    <t>55.03126443910766, 22.119114154674488</t>
-  </si>
-  <si>
-    <t>55.05759963641486, 22.030332560071013</t>
-  </si>
-  <si>
-    <t>56.145236829941275, 25.6700370489752</t>
-  </si>
-  <si>
-    <t>54.57749202622418, 25.761035555727705</t>
-  </si>
-  <si>
-    <t>53.97305954983385, 24.686908122180924</t>
+    <t>53.96692989779158, 25.416455740683055</t>
+  </si>
+  <si>
+    <t>56.44296749286285, 24.836864193327976</t>
+  </si>
+  <si>
+    <t>54.44296015829089, 22.740469234809616</t>
+  </si>
+  <si>
+    <t>53.96692989779158, 23.776334979018685</t>
+  </si>
+  <si>
+    <t>56.272170765510346, 21.235997558696436</t>
+  </si>
+  <si>
+    <t>55.30851893387957, 26.748283126094723</t>
+  </si>
+  <si>
+    <t>56.16245896219404, 25.909725142687375</t>
+  </si>
+  <si>
+    <t>54.75601343546629, 25.18349116638527</t>
+  </si>
+  <si>
+    <t>55.761087088687496, 22.701365275429193</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -438,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +473,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,7 +489,15 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ExamleExcel.xlsx
+++ b/ExamleExcel.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\Actual programing\Personal\MetuProjektas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4901BF-90F5-4866-8B79-D27095AE2DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F2A6DE-7890-4FC4-AB0E-527BD55A6BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31995" yWindow="3915" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExamleExcel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Coordinates seperated by a space or a comma</t>
   </si>
@@ -33,44 +44,86 @@
     <t>Value</t>
   </si>
   <si>
-    <t>53.96692989779158, 25.416455740683055</t>
-  </si>
-  <si>
-    <t>56.44296749286285, 24.836864193327976</t>
-  </si>
-  <si>
-    <t>54.44296015829089, 22.740469234809616</t>
-  </si>
-  <si>
-    <t>53.96692989779158, 23.776334979018685</t>
-  </si>
-  <si>
-    <t>56.272170765510346, 21.235997558696436</t>
-  </si>
-  <si>
-    <t>55.30851893387957, 26.748283126094723</t>
-  </si>
-  <si>
-    <t>56.16245896219404, 25.909725142687375</t>
-  </si>
-  <si>
-    <t>54.75601343546629, 25.18349116638527</t>
-  </si>
-  <si>
-    <t>55.761087088687496, 22.701365275429193</t>
+    <t>56.22820974474307, 21.54826564492056</t>
+  </si>
+  <si>
+    <t>56.25813374951397, 22.490678813846426</t>
+  </si>
+  <si>
+    <t>56.22820974474307, 23.109978896283423</t>
+  </si>
+  <si>
+    <t>56.16233152031572, 23.660070513198704</t>
+  </si>
+  <si>
+    <t>56.0065103906502, 24.867821727695397</t>
+  </si>
+  <si>
+    <t>55.889459375559746, 25.860763142017824</t>
+  </si>
+  <si>
+    <t>55.80878142243272, 21.666892168366523</t>
+  </si>
+  <si>
+    <t>55.64692264017469, 22.699028638517465</t>
+  </si>
+  <si>
+    <t>55.69113250099634, 23.4959947736973</t>
+  </si>
+  <si>
+    <t>55.54357194067024, 24.606521355505283</t>
+  </si>
+  <si>
+    <t>55.43994883262963, 25.50800763956117</t>
+  </si>
+  <si>
+    <t>55.11997062668018, 26.09593347698892</t>
+  </si>
+  <si>
+    <t>55.17969679981339, 22.11110280108971</t>
+  </si>
+  <si>
+    <t>55.112498567192915, 23.28695447594522</t>
+  </si>
+  <si>
+    <t>54.99275543061188, 24.502001206629238</t>
+  </si>
+  <si>
+    <t>55.05267176112026, 25.54720269538969</t>
+  </si>
+  <si>
+    <t>54.676723237763795, 23.104044215412138</t>
+  </si>
+  <si>
+    <t>54.62381043835437, 24.083920611125063</t>
+  </si>
+  <si>
+    <t>54.434273313625745, 25.312032360418588</t>
+  </si>
+  <si>
+    <t>54.07555699954216, 23.587449903963847</t>
+  </si>
+  <si>
+    <t>54.06022320957384, 24.475871169410226</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,11 +491,11 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,11 +551,107 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>